--- a/data/trans_bre/P3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,46%</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-15,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>-13,45%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-11,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43,11%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 0,89</t>
+          <t>-19,32; 1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 6,89</t>
+          <t>-16,95; 6,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 3,32</t>
+          <t>-19,26; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 6,42</t>
+          <t>-17,07; 6,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 10,51</t>
+          <t>-17,31; 7,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 1,71</t>
+          <t>-16,78; 10,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 12,32</t>
+          <t>-0,26; 26,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 6,96</t>
+          <t>-29,2; 2,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 15,18</t>
+          <t>-25,72; 11,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 31,42</t>
+          <t>-31,85; 10,1</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-29,44; 15,59</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-30,31; 17,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 33,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 122,35</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,96%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,46%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 13,48</t>
+          <t>-8,02; 12,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 7,03</t>
+          <t>-15,27; 7,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 8,89</t>
+          <t>-9,78; 11,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 11,78</t>
+          <t>-9,38; 11,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 9,54</t>
+          <t>-17,21; 11,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 40,85</t>
+          <t>-15,41; 8,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 21,18</t>
+          <t>-11,66; 13,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 23,63</t>
+          <t>-16,99; 39,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 32,46</t>
+          <t>-32,6; 24,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 33,74</t>
+          <t>-19,98; 31,68</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; 33,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 34,9</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-36,26; 31,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,28; 50,55</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-4,78</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,58</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-0,98%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-19,8%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 7,62</t>
+          <t>-9,15; 8,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 11,97</t>
+          <t>-6,8; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 9,19</t>
+          <t>-6,95; 9,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 9,06</t>
+          <t>-8,64; 7,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 3,3</t>
+          <t>-8,13; 9,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 19,56</t>
+          <t>-12,88; 3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 32,76</t>
+          <t>-16,33; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 24,42</t>
+          <t>-17,92; 20,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 23,46</t>
+          <t>-14,1; 32,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 12,72</t>
+          <t>-14,09; 27,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,86; 19,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 25,92</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 11,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-42,46; 12,44</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-9,11%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 5,87</t>
+          <t>-9,89; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 10,04</t>
+          <t>-7,26; 10,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 7,39</t>
+          <t>-8,31; 9,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 6,81</t>
+          <t>-9,23; 7,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 12,08</t>
+          <t>-7,79; 9,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 12,2</t>
+          <t>-6,05; 12,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 22,11</t>
+          <t>-12,18; 5,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 16,35</t>
+          <t>-17,0; 12,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 15,04</t>
+          <t>-14,09; 22,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 43,77</t>
+          <t>-15,69; 20,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 16,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,16; 22,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,3; 44,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,34; 18,71</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-4,56</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-15,18%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-8,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-5,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-12,49%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-15,2%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 1,8</t>
+          <t>-18,32; 0,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 5,88</t>
+          <t>-14,5; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 4,18</t>
+          <t>-12,52; 5,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 5,06</t>
+          <t>-11,98; 5,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 4,86</t>
+          <t>-15,68; 4,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 3,59</t>
+          <t>-14,54; 4,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 11,52</t>
+          <t>-14,98; 4,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 8,13</t>
+          <t>-29,83; 1,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 9,56</t>
+          <t>-24,69; 8,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 16,36</t>
+          <t>-20,83; 10,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,1; 11,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 8,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-33,82; 15,65</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-34,66; 13,35</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>-11,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,25%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>-19,14%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-17,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-23,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 7,12</t>
+          <t>-11,19; 6,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 5,9</t>
+          <t>-15,82; 5,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 0,21</t>
+          <t>-20,8; 0,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; -0,41</t>
+          <t>-20,79; 0,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 18,48</t>
+          <t>-25,84; -1,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 15,32</t>
+          <t>-5,34; 18,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 11,42</t>
+          <t>-7,32; 15,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 0,35</t>
+          <t>-19,53; 14,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,84; -0,71</t>
+          <t>-26,61; 11,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 79,22</t>
+          <t>-33,21; 0,38</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 0,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; -1,81</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 80,15</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 55,38</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-5,6%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-4,46%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-7,05%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,37%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,72</t>
+          <t>-6,82; 1,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,13</t>
+          <t>-5,62; 2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,3</t>
+          <t>-6,79; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,21</t>
+          <t>-6,78; 1,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,22</t>
+          <t>-8,91; 0,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 1,52</t>
+          <t>-4,88; 3,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 4,38</t>
+          <t>-4,33; 4,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 0,73</t>
+          <t>-12,69; 2,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 2,56</t>
+          <t>-10,76; 6,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 13,64</t>
+          <t>-13,01; 2,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 2,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 1,46</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 12,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 14,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
